--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2593309.250861611</v>
+        <v>2656070.064025997</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17298407.14104212</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484436</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4975678.321427353</v>
+        <v>5033790.037199254</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
+        <v>332.4291174559667</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>31.5506869772999</v>
-      </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>299.9405530688265</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -801,7 +801,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035089</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>42.59920215195948</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>129.2415235644631</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>218.2754933371726</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491226</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
         <v>93.17921052631581</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>53.93945200553801</v>
+        <v>195.9803836258152</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>30.1577499769271</v>
       </c>
       <c r="U8" t="n">
-        <v>244.4659643936635</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>199.1362892344171</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>133.6387533707654</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>119.9348501475798</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>344.2732773469522</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1658,13 +1658,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>48.38806639661301</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1774,7 +1774,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>183.8492288344932</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>209.5936286579638</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480023126</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>73.29899740799657</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170491</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3035,7 +3035,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932891</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225666</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>181.8908198196656</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>72.52831439469171</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>302.0087766307244</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>195.867119358183</v>
+        <v>64.34965323462492</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>215.2162440113742</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>48.19690652472251</v>
+        <v>67.84972440587259</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>547.9560900011804</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4334,16 +4334,16 @@
         <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4370,10 +4370,10 @@
         <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>974.2556604860882</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.97316572479974</v>
+        <v>304.3928364106915</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>304.3928364106915</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>304.3928364106915</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>304.3928364106915</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>304.3928364106915</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4486,25 +4486,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4531,7 +4531,7 @@
         <v>496.2114551296786</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.7917844437869</v>
+        <v>496.2114551296786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1382.086414623702</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>943.9439418071256</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>508.0341569815702</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.25941213986535</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1733.888642131954</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1975.120543515262</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2437.152405109131</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>2216.672108808957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1808.38598510861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>900.9284236664084</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>728.3667121496334</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>562.4887193511561</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>392.7307156018933</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>216.0236615636495</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>266.2978593068828</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>684.5077410748438</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1143.991608255757</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1586.250411413401</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2005.919660639183</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179229</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.160498707152</v>
+        <v>1897.120709595261</v>
       </c>
       <c r="V7" t="n">
-        <v>1216.160498707152</v>
+        <v>1610.165201465692</v>
       </c>
       <c r="W7" t="n">
-        <v>1216.160498707152</v>
+        <v>1338.138797051983</v>
       </c>
       <c r="X7" t="n">
-        <v>1216.160498707152</v>
+        <v>1092.747042385396</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>1092.747042385396</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>437.0247332457074</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>857.0776321906106</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1277.130531135514</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1277.130531135514</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1277.130531135514</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1697.183430080417</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="U8" t="n">
-        <v>1366.596238694897</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="V8" t="n">
-        <v>1003.979288628724</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W8" t="n">
-        <v>599.123834039757</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X8" t="n">
-        <v>179.9813706190676</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>930.0072868842942</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.897252701282</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.754779884705</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.844995059149</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.070250217444</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2028206266523</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8049892499162</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>96.67483469313153</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2478.753407294279</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2478.753407294279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3458.933073864585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4287.242948697982</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4833.741734656576</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4750.089860840413</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4530.022633713452</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4270.800331030468</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3908.183380964295</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3503.327926375328</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3084.185462954639</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.196823186189</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4104868769191</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.1708717700621</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6091602532871</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7311674548105</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="E13" t="n">
-        <v>438.9731637055477</v>
+        <v>628.6763311243571</v>
       </c>
       <c r="F13" t="n">
-        <v>262.2661096673039</v>
+        <v>451.9692770861134</v>
       </c>
       <c r="G13" t="n">
-        <v>96.67483469313153</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>96.67483469313153</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2228561969181</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535476</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.095275553246</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.215829131701</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.782828384807</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.827320255237</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.800915841529</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.409161174941</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.989490489049</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2469.666995896346</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2031.52452307977</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.614738254214</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1161.839993412509</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>733.9725638217169</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2217786227753</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.09162406599152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.519446927393</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.829321760789</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.328107719384</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4750.089860840413</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4750.089860840413</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4490.86755815743</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4128.250608091256</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3723.39515350229</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3304.252690081601</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2895.966566381254</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4104868769191</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>826.464229749994</v>
+        <v>1057.634124109939</v>
       </c>
       <c r="C16" t="n">
-        <v>826.464229749994</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>660.5862369515168</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>490.828233202254</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>490.828233202254</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2369582280817</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3347839184562</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0129744289566</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2228561969175</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.70672337783</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761256</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731598</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.916623301303</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.675254599299</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.795808177755</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.36280743086</v>
+        <v>2281.246080724684</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.407299301291</v>
+        <v>1994.290572595114</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.380894887582</v>
+        <v>1722.264168181406</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.989140220995</v>
+        <v>1476.872413514818</v>
       </c>
       <c r="Y16" t="n">
-        <v>1018.282848468981</v>
+        <v>1249.452742828927</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.395033719319</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.252560902742</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.342776077187</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.568031235482</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.7006016446895</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.3027702679534</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.17261571116966</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>99.17261571116966</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>534.4273031640876</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.777595122266</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.837561375125</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2603.642458196186</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2603.642458196186</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3583.822124766492</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4412.131999599887</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4958.630785558483</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4958.630785558483</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4874.97891174232</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4654.911684615358</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4395.689381932375</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.978645914229</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3779.123191325262</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.980727904573</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.694604204226</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.3443607024625</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.8878995391048</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.797610685658</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.6771960126117</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>226.2933576287733</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.9082678949572</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>99.17261571116966</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>125.2362888716273</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.7946138378396</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1104.500660463563</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1104.500660463563</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1104.500660463563</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1104.500660463563</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.500660463563</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645.239599095639</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1762.412377189979</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.956939638362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.778295968963</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1392.441748968932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.324231030931</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.001476764125</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>853.1340410030049</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.6482617822256</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>787.2486318341539</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6869203173788</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>448.8089275189016</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>279.0509237696389</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>102.343869731395</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>99.17261571116966</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>99.17261571116966</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>99.17261571116966</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.7523008758595</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>460.5107554469951</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.7206372149561</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1338.204504395869</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1780.463307553514</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2200.132556779295</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.639450749637</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.832225613969</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2694.414404319341</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2535.173035617338</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2289.293589195793</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.860588448898</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.905080319329</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1451.87867590562</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.486921239033</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>979.0672505531411</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5887,13 +5887,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5911,10 +5911,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.754677688392</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716169</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731397</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238769</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856331</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449518</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477119</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309368</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324596</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
         <v>444.5591692831957</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130896</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709351</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962456</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832887</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419178</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.995166752591</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066699</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.674257000255</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2751.674257000255</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>3731.853923570562</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4560.163798403958</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617394</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1038.788501752347</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>866.6435796084321</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>701.1823761828148</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>531.8411618064119</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>355.5508971410281</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G37" t="n">
-        <v>190.3764115397157</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H37" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2722.060823704771</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2722.060823704771</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2538.332722876826</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2260.316511502791</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1973.777792746082</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1702.168177705234</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1457.193212411506</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1230.190331098474</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.854933458241</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711739</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2582.520192247198</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1075.24454565473</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C40" t="n">
-        <v>903.0996235108151</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D40" t="n">
-        <v>737.6384200851978</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E40" t="n">
-        <v>568.2972057087954</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F40" t="n">
-        <v>495.0362820777935</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G40" t="n">
-        <v>329.8617964764812</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2701.059791783003</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2542.23521245386</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2296.772555405175</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2296.772555405175</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>2010.233836648465</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1738.624221607617</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X40" t="n">
-        <v>1493.649256313889</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1266.646375000857</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2400.965882556335</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1963.240199112618</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1527.747203659922</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1094.389248191077</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>789.3298778570128</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G41" t="n">
-        <v>388.3488358531366</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
-        <v>99.63547066921292</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>99.63547066921292</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>534.8901581221309</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1369.240450080309</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2444.300416333168</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2457.631141345292</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2457.631141345292</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3437.810807915599</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4266.120682748995</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4812.619468707589</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4981.773533460646</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4898.538449017343</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.888011263241</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.082497953118</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4057.882337259804</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3653.443672043698</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3234.717997995869</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2826.848663668382</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.8072156605057</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>499.350754497148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>404.2604656437013</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.140050970655</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>226.7562125868166</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3711228530005</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>99.63547066921292</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>125.6991438296705</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>450.2574687958829</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>450.2574687958829</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>450.2574687958829</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>450.2574687958829</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>450.2574687958829</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>450.2574687958829</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1645.702454053682</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1762.875232148022</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1699.419794596405</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1569.241150927006</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1392.904603926975</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.787085988974</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.464331722168</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>853.5968959610481</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.1111167402688</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1036.290720734308</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>864.1457985903938</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>698.6845951647765</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>529.3433807883738</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>353.0531161229899</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>187.8786305216776</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>187.8786305216776</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>99.63547066921292</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.6236510982426</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7906009337182</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.4089779660193</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.301340411273</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.968638833257</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.046383323379</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.961772558061</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2719.563042686733</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2719.563042686733</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2560.738463357589</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2315.275806308905</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2037.25959493487</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1750.72087617816</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.111261137312</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1234.136295843584</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1036.290720734308</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.268927880592</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.543244436875</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1647.05024898418</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1213.692293515335</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>786.2416532974028</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>385.2606112935267</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>96.54724610960297</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
-        <v>96.54724610960297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.8019335625208</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.152225520699</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.212191773559</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.212191773559</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2472.373978117851</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3452.553644688157</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4280.863519521554</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4827.362305480148</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480148</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4827.362305480148</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.711867726047</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4348.906354415923</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3986.70619372261</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3582.267528506503</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3163.541854458674</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.15170899264</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008958</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840913</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.051826411045</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272066</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933905</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.54724610960297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.6109192700606</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.1692442362729</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>447.1692442362729</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>447.1692442362729</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>447.1692442362729</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>447.1692442362729</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>447.1692442362729</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014382</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806589</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>791.6423287030481</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C46" t="n">
-        <v>742.9585847386819</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>577.4973813130646</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>577.4973813130646</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>401.2071166476808</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>236.0326310463685</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>96.54724610960297</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.54724610960297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386329</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741086</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064097</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851663</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273648</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998451</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2695.473786205355</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2536.649206876212</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2291.186549827527</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.170338453492</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.631619696783</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W46" t="n">
-        <v>1455.022004655934</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X46" t="n">
-        <v>1210.047039362207</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.0441580491752</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>243.6685872558669</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.91440664741822</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>130.5917045987028</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>407.152590549595</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,16 +8611,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>395.2263144949848</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>37.79154236080012</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>37.79154236080012</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>161.419087698041</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>307.9556158071205</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>13.46537880012556</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>31.47655186292195</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>270.5645090925777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>44.0005120768508</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>53.11057571601649</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>122.4480280049943</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.29624514453957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>149.3971519075479</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>90.92021546249596</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627266</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358519</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>61.11721065853231</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>101.9990476240382</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>121.1673571850285</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.8657331417184</v>
+        <v>160.7958207444079</v>
       </c>
     </row>
     <row r="44">
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886996</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>188.5743969728374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>122.2265663977534</v>
+        <v>102.9863699957347</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>435050.002507678</v>
+        <v>437163.7229115572</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>435050.002507678</v>
+        <v>437544.3029192114</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>417118.9234775364</v>
+        <v>434924.9404895918</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>417118.9234775365</v>
+        <v>434924.9404895919</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>425080.8795983003</v>
+        <v>434924.9404895919</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>435101.2484007669</v>
+        <v>434924.9404895918</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435101.2484007669</v>
+        <v>434924.9404895919</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427139.2922800031</v>
+        <v>434924.9404895919</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417295.2313887115</v>
+        <v>434924.9404895919</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="C2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="D2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
-        <v>480023.4143166522</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
-        <v>480023.4143166522</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="G2" t="n">
-        <v>489186.0898669841</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="H2" t="n">
-        <v>500514.7049304849</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="J2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="K2" t="n">
         <v>500514.7049304848</v>
@@ -26344,16 +26344,16 @@
         <v>500514.7049304848</v>
       </c>
       <c r="M2" t="n">
-        <v>500738.9936869254</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="N2" t="n">
-        <v>500738.9936869254</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="O2" t="n">
-        <v>491576.3181365935</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="P2" t="n">
-        <v>480247.703073093</v>
+        <v>500514.7049304849</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.7678950164</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998255</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.8263659351</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8557.553879112202</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10415.38475254754</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.8546387727</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622134</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995837</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>130243.4307963242</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13662.00063300875</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>13662.00063300875</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>13922.78057714313</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26445,19 +26445,19 @@
         <v>14245.20557049264</v>
       </c>
       <c r="L4" t="n">
-        <v>14245.20557049258</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14648.85760080239</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>14648.85760080239</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14388.07765666802</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>14065.6526633185</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677996</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677996</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>75371.18794048893</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.9599574399</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>75757.64638373091</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.59571842736</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132423.625233845</v>
+        <v>132423.6252338448</v>
       </c>
       <c r="C6" t="n">
-        <v>274614.9258935549</v>
+        <v>240552.5413965449</v>
       </c>
       <c r="D6" t="n">
-        <v>274614.9258935549</v>
+        <v>301468.9805590126</v>
       </c>
       <c r="E6" t="n">
-        <v>158761.7129509284</v>
+        <v>226172.9271937672</v>
       </c>
       <c r="F6" t="n">
-        <v>392888.5393168635</v>
+        <v>408528.036414817</v>
       </c>
       <c r="G6" t="n">
-        <v>391334.5674702399</v>
+        <v>408528.036414817</v>
       </c>
       <c r="H6" t="n">
-        <v>398135.8760016522</v>
+        <v>408528.036414817</v>
       </c>
       <c r="I6" t="n">
-        <v>408551.2607541997</v>
+        <v>408528.0364148169</v>
       </c>
       <c r="J6" t="n">
-        <v>297536.7954092093</v>
+        <v>297513.5710698267</v>
       </c>
       <c r="K6" t="n">
-        <v>408551.2607541996</v>
+        <v>355482.1817760443</v>
       </c>
       <c r="L6" t="n">
-        <v>408551.2607541997</v>
+        <v>399135.7346881948</v>
       </c>
       <c r="M6" t="n">
-        <v>213090.8048290994</v>
+        <v>256327.8654768294</v>
       </c>
       <c r="N6" t="n">
-        <v>408434.1761286831</v>
+        <v>408528.0364148169</v>
       </c>
       <c r="O6" t="n">
-        <v>401430.5940961946</v>
+        <v>408528.0364148169</v>
       </c>
       <c r="P6" t="n">
-        <v>392771.4546913471</v>
+        <v>408528.0364148171</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.657696389621</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.443383365161</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370037</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440397</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.22226272547641</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60280699512447</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>782.5447188499325</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440397</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.22226272547641</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60280699512447</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>101.3319306324442</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>104.2627093945165</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>128.2368922496478</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27549,10 +27549,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>34.69383865996755</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>196.6755454493098</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>221.7092187338877</v>
+        <v>79.66828711361055</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>187.7088048787647</v>
       </c>
       <c r="U8" t="n">
-        <v>12.16411526248982</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>44.28436272291219</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.609336215368174e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.172490809190208e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,7 +34702,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>243.6685872558669</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,13 +35030,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.91440664741822</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>130.5917045987028</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>407.152590549595</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>395.2263144949848</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>37.79154236080012</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,19 +35574,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.891691782153</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>37.79154236080012</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35805,19 +35805,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960961</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956037</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>161.419087698041</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,13 +36054,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>307.9556158071205</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821209</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>13.46537880012556</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821179</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>31.47655186292195</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821206</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
